--- a/CB-202112.xlsx
+++ b/CB-202112.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF60C68C-4E90-4920-8031-E6AE03CC07DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FCC7D6C-2314-4A7E-8AFB-571BBB8D1593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D298135B-E4C0-45E9-BB28-1F0B05CAE31B}"/>
   </bookViews>
@@ -21,6 +21,7 @@
     <sheet name="s" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="108">
   <si>
     <t>收入</t>
   </si>
@@ -1275,11 +1276,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -1347,40 +1382,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1404,6 +1405,74 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1424,7 +1493,7 @@
 </file>
 
 <file path=xl/activeX/activeX11.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1432,7 +1501,7 @@
 </file>
 
 <file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1657,6 +1726,9 @@
                 <c:pt idx="11">
                   <c:v>44540</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>44548</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1701,6 +1773,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>4096.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4648.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1827,6 +1902,9 @@
                 <c:pt idx="11">
                   <c:v>44540</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>44548</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1871,6 +1949,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.14879999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.16250000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2700,23 +2781,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>125678</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>59003</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>4405</xdr:rowOff>
+      <xdr:rowOff>147280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFE44E3E-E32E-404F-A5CA-79940AC994E9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2732,7 +2813,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10412678" y="123824"/>
+          <a:off x="8288603" y="266699"/>
           <a:ext cx="2007922" cy="5671781"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3650,7 +3731,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3808,9 +3889,15 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="51"/>
-      <c r="B14" s="82"/>
-      <c r="C14" s="52"/>
+      <c r="A14" s="51">
+        <v>44548</v>
+      </c>
+      <c r="B14" s="82">
+        <v>4648.7</v>
+      </c>
+      <c r="C14" s="52">
+        <v>0.16250000000000001</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -3826,7 +3913,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J39" sqref="J39"/>
+      <selection pane="bottomLeft" activeCell="O61" sqref="O61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3852,47 +3939,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="120"/>
-      <c r="B1" s="126" t="s">
+      <c r="A1" s="130"/>
+      <c r="B1" s="136" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="128" t="s">
+      <c r="C1" s="138" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="130" t="s">
+      <c r="D1" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="130" t="s">
+      <c r="E1" s="140" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="125" t="s">
+      <c r="F1" s="135" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="124" t="s">
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="134" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="124"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="124"/>
-      <c r="P1" s="124"/>
-      <c r="Q1" s="122" t="s">
+      <c r="K1" s="134"/>
+      <c r="L1" s="134"/>
+      <c r="M1" s="134"/>
+      <c r="N1" s="134"/>
+      <c r="O1" s="134"/>
+      <c r="P1" s="134"/>
+      <c r="Q1" s="132" t="s">
         <v>32</v>
       </c>
-      <c r="S1" s="118" t="s">
+      <c r="S1" s="128" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="121"/>
-      <c r="B2" s="127"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
+      <c r="A2" s="131"/>
+      <c r="B2" s="137"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
       <c r="F2" s="24" t="s">
         <v>10</v>
       </c>
@@ -3926,11 +4013,11 @@
       <c r="P2" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="123"/>
+      <c r="Q2" s="133"/>
       <c r="R2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="119"/>
+      <c r="S2" s="129"/>
     </row>
     <row r="3" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="63"/>
@@ -3960,7 +4047,7 @@
         <v>107</v>
       </c>
       <c r="J3" s="21">
-        <v>110.01</v>
+        <v>110.41</v>
       </c>
       <c r="K3" s="21">
         <v>101.267</v>
@@ -3970,22 +4057,21 @@
       </c>
       <c r="M3" s="20">
         <f>J3*L3</f>
-        <v>1100.1000000000001</v>
+        <v>1104.0999999999999</v>
       </c>
       <c r="N3" s="44">
         <f>(J3-K3)/K3</f>
-        <v>8.6336121342589486E-2</v>
+        <v>9.0286075424373197E-2</v>
       </c>
       <c r="O3" s="20">
         <f>(J3-K3)*L3</f>
-        <v>87.430000000000092</v>
+        <v>91.43</v>
       </c>
       <c r="P3" s="44">
         <f>M3/$M$58</f>
-        <v>3.6637526938623412E-2</v>
-      </c>
-      <c r="Q3" s="116"/>
-      <c r="R3" s="71"/>
+        <v>3.4875794663349551E-2</v>
+      </c>
+      <c r="Q3" s="117"/>
       <c r="S3" s="72"/>
       <c r="T3" s="71"/>
     </row>
@@ -4016,7 +4102,7 @@
         <v>107</v>
       </c>
       <c r="J4" s="21">
-        <v>103.84</v>
+        <v>105.51</v>
       </c>
       <c r="K4" s="21">
         <v>98.05</v>
@@ -4026,19 +4112,19 @@
       </c>
       <c r="M4" s="20">
         <f>J4*L4</f>
-        <v>1038.4000000000001</v>
+        <v>1055.1000000000001</v>
       </c>
       <c r="N4" s="44">
         <f>(J4-K4)/K4</f>
-        <v>5.9051504334523268E-2</v>
+        <v>7.608363080061202E-2</v>
       </c>
       <c r="O4" s="20">
         <f>(J4-K4)*L4</f>
-        <v>57.900000000000063</v>
+        <v>74.60000000000008</v>
       </c>
       <c r="P4" s="44">
         <f>M4/$M$58</f>
-        <v>3.4582681549919593E-2</v>
+        <v>3.3328005569513736E-2</v>
       </c>
       <c r="Q4" s="14"/>
       <c r="S4" s="45"/>
@@ -4073,29 +4159,29 @@
         <v>107</v>
       </c>
       <c r="J5" s="21">
-        <v>109.15</v>
+        <v>111.53</v>
       </c>
       <c r="K5" s="21">
-        <v>100.94</v>
+        <v>104.425</v>
       </c>
       <c r="L5" s="21">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M5" s="20">
         <f>J5*L5</f>
-        <v>1091.5</v>
+        <v>2230.6</v>
       </c>
       <c r="N5" s="44">
         <f>(J5-K5)/K5</f>
-        <v>8.1335446800079342E-2</v>
+        <v>6.8039262628680916E-2</v>
       </c>
       <c r="O5" s="20">
         <f>(J5-K5)*L5</f>
-        <v>82.10000000000008</v>
+        <v>142.10000000000008</v>
       </c>
       <c r="P5" s="44">
         <f>M5/$M$58</f>
-        <v>3.6351114129176847E-2</v>
+        <v>7.0459150055309769E-2</v>
       </c>
       <c r="Q5" s="14"/>
       <c r="S5" s="45"/>
@@ -4127,7 +4213,7 @@
         <v>107</v>
       </c>
       <c r="J6" s="21">
-        <v>105.803</v>
+        <v>107.02</v>
       </c>
       <c r="K6" s="21">
         <v>95.771000000000001</v>
@@ -4137,19 +4223,19 @@
       </c>
       <c r="M6" s="20">
         <f>J6*L6</f>
-        <v>1058.03</v>
+        <v>1070.2</v>
       </c>
       <c r="N6" s="44">
         <f>(J6-K6)/K6</f>
-        <v>0.10474987209071636</v>
+        <v>0.11745726785770218</v>
       </c>
       <c r="O6" s="20">
         <f>(J6-K6)*L6</f>
-        <v>100.31999999999996</v>
+        <v>112.48999999999995</v>
       </c>
       <c r="P6" s="44">
         <f>M6/$M$58</f>
-        <v>3.523643543938889E-2</v>
+        <v>3.3804977310675388E-2</v>
       </c>
       <c r="Q6" s="14"/>
       <c r="S6" s="45"/>
@@ -4179,7 +4265,7 @@
         <v>107</v>
       </c>
       <c r="J7" s="21">
-        <v>117.29900000000001</v>
+        <v>123.01</v>
       </c>
       <c r="K7" s="21">
         <v>96.34</v>
@@ -4189,19 +4275,19 @@
       </c>
       <c r="M7" s="20">
         <f>J7*L7</f>
-        <v>2345.98</v>
+        <v>2460.2000000000003</v>
       </c>
       <c r="N7" s="44">
         <f>(J7-K7)/K7</f>
-        <v>0.21755241851774967</v>
+        <v>0.27683205314511106</v>
       </c>
       <c r="O7" s="20">
         <f>(J7-K7)*L7</f>
-        <v>419.18000000000006</v>
+        <v>533.40000000000009</v>
       </c>
       <c r="P7" s="44">
         <f>M7/$M$58</f>
-        <v>7.8130084035516537E-2</v>
+        <v>7.7711647523569044E-2</v>
       </c>
       <c r="Q7" s="14"/>
       <c r="S7" s="45"/>
@@ -4234,7 +4320,7 @@
         <v>107</v>
       </c>
       <c r="J8" s="21">
-        <v>121.7</v>
+        <v>123.021</v>
       </c>
       <c r="K8" s="21">
         <v>100</v>
@@ -4244,19 +4330,19 @@
       </c>
       <c r="M8" s="20">
         <f>J8*L8</f>
-        <v>1217</v>
+        <v>1230.21</v>
       </c>
       <c r="N8" s="44">
         <f>(J8-K8)/K8</f>
-        <v>0.21700000000000003</v>
+        <v>0.23021</v>
       </c>
       <c r="O8" s="20">
         <f>(J8-K8)*L8</f>
-        <v>217.00000000000003</v>
+        <v>230.21</v>
       </c>
       <c r="P8" s="44">
         <f>M8/$M$58</f>
-        <v>4.0530742918193516E-2</v>
+        <v>3.8859298390362514E-2</v>
       </c>
       <c r="Q8" s="14"/>
       <c r="S8" s="45"/>
@@ -4286,7 +4372,7 @@
         <v>107</v>
       </c>
       <c r="J9" s="21">
-        <v>121.97799999999999</v>
+        <v>120.797</v>
       </c>
       <c r="K9" s="21">
         <v>102.126</v>
@@ -4296,19 +4382,19 @@
       </c>
       <c r="M9" s="20">
         <f>J9*L9</f>
-        <v>1219.78</v>
+        <v>1207.97</v>
       </c>
       <c r="N9" s="44">
         <f>(J9-K9)/K9</f>
-        <v>0.19438732546070528</v>
+        <v>0.18282317920999541</v>
       </c>
       <c r="O9" s="20">
         <f>(J9-K9)*L9</f>
-        <v>198.5199999999999</v>
+        <v>186.70999999999992</v>
       </c>
       <c r="P9" s="44">
         <f>M9/$M$58</f>
-        <v>4.0623327524037862E-2</v>
+        <v>3.8156791666956215E-2</v>
       </c>
       <c r="Q9" s="14"/>
       <c r="S9" s="45"/>
@@ -4338,7 +4424,7 @@
         <v>107</v>
       </c>
       <c r="J10" s="21">
-        <v>103.12</v>
+        <v>104.16</v>
       </c>
       <c r="K10" s="21">
         <v>99.6</v>
@@ -4348,19 +4434,19 @@
       </c>
       <c r="M10" s="20">
         <f>J10*L10</f>
-        <v>1031.2</v>
+        <v>1041.5999999999999</v>
       </c>
       <c r="N10" s="44">
         <f>(J10-K10)/K10</f>
-        <v>3.5341365461847497E-2</v>
+        <v>4.5783132530120507E-2</v>
       </c>
       <c r="O10" s="20">
         <f>(J10-K10)*L10</f>
-        <v>35.200000000000102</v>
+        <v>45.600000000000023</v>
       </c>
       <c r="P10" s="44">
         <f>M10/$M$58</f>
-        <v>3.4342894081545727E-2</v>
+        <v>3.2901573880395697E-2</v>
       </c>
       <c r="Q10" s="14"/>
       <c r="S10" s="45"/>
@@ -4385,7 +4471,7 @@
         <v>107</v>
       </c>
       <c r="J11" s="21">
-        <v>108</v>
+        <v>111.59</v>
       </c>
       <c r="K11" s="21">
         <v>97.01</v>
@@ -4395,19 +4481,19 @@
       </c>
       <c r="M11" s="20">
         <f>J11*L11</f>
-        <v>1080</v>
+        <v>1115.9000000000001</v>
       </c>
       <c r="N11" s="44">
         <f>(J11-K11)/K11</f>
-        <v>0.11328728997010612</v>
+        <v>0.15029378414596431</v>
       </c>
       <c r="O11" s="20">
         <f>(J11-K11)*L11</f>
-        <v>109.89999999999995</v>
+        <v>145.79999999999998</v>
       </c>
       <c r="P11" s="44">
         <f>M11/$M$58</f>
-        <v>3.5968120256079698E-2</v>
+        <v>3.5248527547171241E-2</v>
       </c>
       <c r="Q11" s="14"/>
       <c r="S11" s="45"/>
@@ -4438,7 +4524,7 @@
         <v>107</v>
       </c>
       <c r="J12" s="21">
-        <v>112.2</v>
+        <v>114.1</v>
       </c>
       <c r="K12" s="21">
         <v>98.131</v>
@@ -4448,22 +4534,22 @@
       </c>
       <c r="M12" s="20">
         <f>J12*L12</f>
-        <v>1122</v>
+        <v>1141</v>
       </c>
       <c r="N12" s="44">
         <f>(J12-K12)/K12</f>
-        <v>0.14336957740163661</v>
+        <v>0.16273145081574625</v>
       </c>
       <c r="O12" s="20">
         <f>(J12-K12)*L12</f>
-        <v>140.69000000000003</v>
+        <v>159.68999999999994</v>
       </c>
       <c r="P12" s="44">
         <f>M12/$M$58</f>
-        <v>3.7366880488260576E-2</v>
+        <v>3.6041374613605508E-2</v>
       </c>
       <c r="Q12" s="14"/>
-      <c r="R12" s="85"/>
+      <c r="R12" s="94"/>
       <c r="S12" s="93"/>
       <c r="T12" s="85"/>
     </row>
@@ -4539,7 +4625,7 @@
         <v>107</v>
       </c>
       <c r="J14" s="21">
-        <v>109.94</v>
+        <v>109.73</v>
       </c>
       <c r="K14" s="21">
         <v>98.71</v>
@@ -4549,22 +4635,21 @@
       </c>
       <c r="M14" s="20">
         <f>J14*L14</f>
-        <v>1099.4000000000001</v>
+        <v>1097.3</v>
       </c>
       <c r="N14" s="44">
         <f>(J14-K14)/K14</f>
-        <v>0.11376760206665996</v>
+        <v>0.11164015803869932</v>
       </c>
       <c r="O14" s="20">
         <f>(J14-K14)*L14</f>
-        <v>112.30000000000004</v>
+        <v>110.2000000000001</v>
       </c>
       <c r="P14" s="44">
         <f>M14/$M$58</f>
-        <v>3.6614214268087059E-2</v>
+        <v>3.4660999442164171E-2</v>
       </c>
       <c r="Q14" s="14"/>
-      <c r="R14" s="73"/>
       <c r="S14" s="81"/>
       <c r="T14" s="73"/>
     </row>
@@ -4593,7 +4678,7 @@
         <v>107</v>
       </c>
       <c r="J15" s="21">
-        <v>106.73</v>
+        <v>107.47</v>
       </c>
       <c r="K15" s="21">
         <v>109.215</v>
@@ -4603,21 +4688,22 @@
       </c>
       <c r="M15" s="20">
         <f>J15*L15</f>
-        <v>2134.6</v>
+        <v>2149.4</v>
       </c>
       <c r="N15" s="44">
         <f>(J15-K15)/K15</f>
-        <v>-2.2753284805200745E-2</v>
+        <v>-1.5977658746509221E-2</v>
       </c>
       <c r="O15" s="20">
         <f>(J15-K15)*L15</f>
-        <v>-49.699999999999989</v>
+        <v>-34.900000000000091</v>
       </c>
       <c r="P15" s="44">
         <f>M15/$M$58</f>
-        <v>7.1090323609840481E-2</v>
+        <v>6.7894242414096126E-2</v>
       </c>
       <c r="Q15" s="14"/>
+      <c r="R15" s="118"/>
       <c r="S15" s="45"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
@@ -4647,7 +4733,7 @@
         <v>107</v>
       </c>
       <c r="J16" s="21">
-        <v>107.56</v>
+        <v>107.499</v>
       </c>
       <c r="K16" s="21">
         <v>78.131</v>
@@ -4657,19 +4743,19 @@
       </c>
       <c r="M16" s="20">
         <f>J16*L16</f>
-        <v>1075.5999999999999</v>
+        <v>1074.99</v>
       </c>
       <c r="N16" s="44">
         <f>(J16-K16)/K16</f>
-        <v>0.3766622723374845</v>
+        <v>0.37588153229831944</v>
       </c>
       <c r="O16" s="20">
         <f>(J16-K16)*L16</f>
-        <v>294.29000000000002</v>
+        <v>293.67999999999995</v>
       </c>
       <c r="P16" s="44">
         <f>M16/$M$58</f>
-        <v>3.5821583469851224E-2</v>
+        <v>3.3956281591480966E-2</v>
       </c>
       <c r="Q16" s="14"/>
       <c r="S16" s="45"/>
@@ -4701,7 +4787,7 @@
         <v>107</v>
       </c>
       <c r="J17" s="21">
-        <v>102.71</v>
+        <v>105.02</v>
       </c>
       <c r="K17" s="21">
         <v>94.27</v>
@@ -4711,19 +4797,19 @@
       </c>
       <c r="M17" s="20">
         <f>J17*L17</f>
-        <v>1027.0999999999999</v>
+        <v>1050.2</v>
       </c>
       <c r="N17" s="44">
         <f>(J17-K17)/K17</f>
-        <v>8.9530073194017165E-2</v>
+        <v>0.11403415720801953</v>
       </c>
       <c r="O17" s="20">
         <f>(J17-K17)*L17</f>
-        <v>84.399999999999977</v>
+        <v>107.5</v>
       </c>
       <c r="P17" s="44">
         <f>M17/$M$58</f>
-        <v>3.4206348439832827E-2</v>
+        <v>3.3173226660130152E-2</v>
       </c>
       <c r="Q17" s="14"/>
       <c r="S17" s="45"/>
@@ -4755,7 +4841,7 @@
         <v>107</v>
       </c>
       <c r="J18" s="21">
-        <v>100.021</v>
+        <v>100.18</v>
       </c>
       <c r="K18" s="21">
         <v>97.88</v>
@@ -4765,19 +4851,19 @@
       </c>
       <c r="M18" s="20">
         <f>J18*L18</f>
-        <v>1000.21</v>
+        <v>1001.8000000000001</v>
       </c>
       <c r="N18" s="44">
         <f>(J18-K18)/K18</f>
-        <v>2.187372292603193E-2</v>
+        <v>2.3498161013486018E-2</v>
       </c>
       <c r="O18" s="20">
         <f>(J18-K18)*L18</f>
-        <v>21.410000000000053</v>
+        <v>23.000000000000114</v>
       </c>
       <c r="P18" s="44">
         <f>M18/$M$58</f>
-        <v>3.331080885308655E-2</v>
+        <v>3.1644390085810693E-2</v>
       </c>
       <c r="Q18" s="14"/>
       <c r="S18" s="45"/>
@@ -4809,7 +4895,7 @@
         <v>107</v>
       </c>
       <c r="J19" s="21">
-        <v>111.62</v>
+        <v>109.37</v>
       </c>
       <c r="K19" s="21">
         <v>86.13</v>
@@ -4819,19 +4905,19 @@
       </c>
       <c r="M19" s="20">
         <f>J19*L19</f>
-        <v>1116.2</v>
+        <v>1093.7</v>
       </c>
       <c r="N19" s="44">
         <f>(J19-K19)/K19</f>
-        <v>0.29594798560315816</v>
+        <v>0.26982468361778716</v>
       </c>
       <c r="O19" s="20">
         <f>(J19-K19)*L19</f>
-        <v>254.90000000000009</v>
+        <v>232.40000000000009</v>
       </c>
       <c r="P19" s="44">
         <f>M19/$M$58</f>
-        <v>3.717371836095941E-2</v>
+        <v>3.4547284325066034E-2</v>
       </c>
       <c r="Q19" s="14"/>
       <c r="S19" s="45"/>
@@ -4858,7 +4944,7 @@
         <v>107</v>
       </c>
       <c r="J20" s="21">
-        <v>95.46</v>
+        <v>96.16</v>
       </c>
       <c r="K20" s="21">
         <v>92.44</v>
@@ -4868,19 +4954,19 @@
       </c>
       <c r="M20" s="20">
         <f>J20*L20</f>
-        <v>954.59999999999991</v>
+        <v>961.59999999999991</v>
       </c>
       <c r="N20" s="44">
         <f>(J20-K20)/K20</f>
-        <v>3.2669839896148814E-2</v>
+        <v>4.024231934227606E-2</v>
       </c>
       <c r="O20" s="20">
         <f>(J20-K20)*L20</f>
-        <v>30.19999999999996</v>
+        <v>37.199999999999989</v>
       </c>
       <c r="P20" s="44">
         <f>M20/$M$58</f>
-        <v>3.1791821848568221E-2</v>
+        <v>3.037457127821477E-2</v>
       </c>
       <c r="Q20" s="14"/>
       <c r="S20" s="45"/>
@@ -4929,7 +5015,7 @@
         <v>0</v>
       </c>
       <c r="Q21" s="70"/>
-      <c r="R21" s="7"/>
+      <c r="R21" s="73"/>
       <c r="S21" s="45"/>
       <c r="T21" s="7"/>
     </row>
@@ -4961,7 +5047,7 @@
         <v>107</v>
       </c>
       <c r="J22" s="21">
-        <v>104.95</v>
+        <v>107.28</v>
       </c>
       <c r="K22" s="21">
         <v>102.74</v>
@@ -4971,21 +5057,22 @@
       </c>
       <c r="M22" s="20">
         <f>J22*L22</f>
-        <v>1049.5</v>
+        <v>1072.8</v>
       </c>
       <c r="N22" s="44">
         <f>(J22-K22)/K22</f>
-        <v>2.1510609305041933E-2</v>
+        <v>4.4189215495425406E-2</v>
       </c>
       <c r="O22" s="20">
         <f>(J22-K22)*L22</f>
-        <v>22.10000000000008</v>
+        <v>45.400000000000063</v>
       </c>
       <c r="P22" s="44">
         <f>M22/$M$58</f>
-        <v>3.4952353896995969E-2</v>
+        <v>3.388710489524626E-2</v>
       </c>
       <c r="Q22" s="14"/>
+      <c r="R22" s="71"/>
       <c r="S22" s="45"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
@@ -5016,7 +5103,7 @@
         <v>78</v>
       </c>
       <c r="J23" s="21">
-        <v>108.7</v>
+        <v>108.529</v>
       </c>
       <c r="K23" s="21">
         <v>104.50700000000001</v>
@@ -5026,19 +5113,19 @@
       </c>
       <c r="M23" s="20">
         <f>J23*L23</f>
-        <v>1087</v>
+        <v>1085.29</v>
       </c>
       <c r="N23" s="44">
         <f>(J23-K23)/K23</f>
-        <v>4.012171433492491E-2</v>
+        <v>3.8485460304094381E-2</v>
       </c>
       <c r="O23" s="20">
         <f>(J23-K23)*L23</f>
-        <v>41.929999999999978</v>
+        <v>40.219999999999914</v>
       </c>
       <c r="P23" s="44">
         <f>M23/$M$58</f>
-        <v>3.6201246961443181E-2</v>
+        <v>3.4281633176511762E-2</v>
       </c>
       <c r="Q23" s="14"/>
       <c r="S23" s="45"/>
@@ -5118,7 +5205,7 @@
         <v>78</v>
       </c>
       <c r="J25" s="21">
-        <v>107.75</v>
+        <v>113.02</v>
       </c>
       <c r="K25" s="21">
         <v>101.93</v>
@@ -5128,19 +5215,19 @@
       </c>
       <c r="M25" s="20">
         <f>J25*L25</f>
-        <v>1077.5</v>
+        <v>1130.2</v>
       </c>
       <c r="N25" s="44">
         <f>(J25-K25)/K25</f>
-        <v>5.7098008437162687E-2</v>
+        <v>0.10880015697046981</v>
       </c>
       <c r="O25" s="20">
         <f>(J25-K25)*L25</f>
-        <v>58.199999999999932</v>
+        <v>110.89999999999989</v>
       </c>
       <c r="P25" s="44">
         <f>M25/$M$58</f>
-        <v>3.5884860718449887E-2</v>
+        <v>3.5700229262311083E-2</v>
       </c>
       <c r="Q25" s="14" t="s">
         <v>80</v>
@@ -5225,7 +5312,7 @@
         <v>78</v>
       </c>
       <c r="J27" s="21">
-        <v>104.86</v>
+        <v>105.97</v>
       </c>
       <c r="K27" s="21">
         <v>98.32</v>
@@ -5235,25 +5322,25 @@
       </c>
       <c r="M27" s="20">
         <f>J27*L27</f>
-        <v>1048.5999999999999</v>
+        <v>1059.7</v>
       </c>
       <c r="N27" s="44">
         <f>(J27-K27)/K27</f>
-        <v>6.6517493897477686E-2</v>
+        <v>7.7807160292921132E-2</v>
       </c>
       <c r="O27" s="20">
         <f>(J27-K27)*L27</f>
-        <v>65.400000000000063</v>
+        <v>76.500000000000057</v>
       </c>
       <c r="P27" s="44">
         <f>M27/$M$58</f>
-        <v>3.4922380463449233E-2</v>
+        <v>3.3473308219139138E-2</v>
       </c>
       <c r="Q27" s="14"/>
       <c r="S27" s="45"/>
     </row>
-    <row r="28" spans="1:20" s="135" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="117">
+    <row r="28" spans="1:20" s="118" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="116">
         <v>26</v>
       </c>
       <c r="C28" s="53">
@@ -5279,7 +5366,7 @@
         <v>78</v>
       </c>
       <c r="J28" s="21">
-        <v>107.215</v>
+        <v>106.85</v>
       </c>
       <c r="K28" s="21">
         <v>102.23099999999999</v>
@@ -5289,22 +5376,23 @@
       </c>
       <c r="M28" s="20">
         <f>J28*L28</f>
-        <v>1072.1500000000001</v>
+        <v>1068.5</v>
       </c>
       <c r="N28" s="44">
         <f>(J28-K28)/K28</f>
-        <v>4.8752335397286628E-2</v>
+        <v>4.5181989807396974E-2</v>
       </c>
       <c r="O28" s="20">
         <f>(J28-K28)*L28</f>
-        <v>49.840000000000089</v>
+        <v>46.19</v>
       </c>
       <c r="P28" s="44">
         <f>M28/$M$58</f>
-        <v>3.5706685307922086E-2</v>
+        <v>3.375127850537904E-2</v>
       </c>
       <c r="Q28" s="14"/>
-      <c r="S28" s="144"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="127"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="94"/>
@@ -5334,7 +5422,7 @@
         <v>78</v>
       </c>
       <c r="J29" s="21">
-        <v>105.111</v>
+        <v>121.6</v>
       </c>
       <c r="K29" s="21">
         <v>101</v>
@@ -5344,22 +5432,21 @@
       </c>
       <c r="M29" s="20">
         <f>J29*L29</f>
-        <v>1051.1100000000001</v>
+        <v>1216</v>
       </c>
       <c r="N29" s="44">
         <f>(J29-K29)/K29</f>
-        <v>4.0702970297029746E-2</v>
+        <v>0.20396039603960389</v>
       </c>
       <c r="O29" s="20">
         <f>(J29-K29)*L29</f>
-        <v>41.110000000000042</v>
+        <v>205.99999999999994</v>
       </c>
       <c r="P29" s="44">
         <f>M29/$M$58</f>
-        <v>3.5005973039229574E-2</v>
+        <v>3.8410439553150127E-2</v>
       </c>
       <c r="Q29" s="14"/>
-      <c r="R29" s="94"/>
       <c r="S29" s="102"/>
       <c r="T29" s="94"/>
     </row>
@@ -5391,7 +5478,7 @@
         <v>78</v>
       </c>
       <c r="J30" s="21">
-        <v>95.003</v>
+        <v>94.75</v>
       </c>
       <c r="K30" s="21">
         <v>92</v>
@@ -5401,22 +5488,22 @@
       </c>
       <c r="M30" s="20">
         <f>J30*L30</f>
-        <v>950.03</v>
+        <v>947.5</v>
       </c>
       <c r="N30" s="44">
         <f>(J30-K30)/K30</f>
-        <v>3.264130434782609E-2</v>
+        <v>2.9891304347826088E-2</v>
       </c>
       <c r="O30" s="20">
         <f>(J30-K30)*L30</f>
-        <v>30.03</v>
+        <v>27.5</v>
       </c>
       <c r="P30" s="44">
         <f>M30/$M$58</f>
-        <v>3.1639623413780925E-2</v>
+        <v>2.9929187069580383E-2</v>
       </c>
       <c r="Q30" s="14"/>
-      <c r="R30" s="8"/>
+      <c r="R30" s="85"/>
       <c r="S30" s="40"/>
       <c r="T30" s="8"/>
     </row>
@@ -5497,7 +5584,7 @@
         <v>78</v>
       </c>
       <c r="J32" s="21">
-        <v>98.95</v>
+        <v>99.61</v>
       </c>
       <c r="K32" s="21">
         <v>99.025000000000006</v>
@@ -5507,63 +5594,63 @@
       </c>
       <c r="M32" s="20">
         <f>J32*L32</f>
-        <v>1979</v>
+        <v>1992.2</v>
       </c>
       <c r="N32" s="44">
         <f>(J32-K32)/K32</f>
-        <v>-7.5738449886395194E-4</v>
+        <v>5.907599091138538E-3</v>
       </c>
       <c r="O32" s="20">
         <f>(J32-K32)*L32</f>
-        <v>-1.5000000000000568</v>
+        <v>11.699999999999875</v>
       </c>
       <c r="P32" s="44">
         <f>M32/$M$58</f>
-        <v>6.5908249987760861E-2</v>
+        <v>6.2928682300810598E-2</v>
       </c>
       <c r="Q32" s="14"/>
       <c r="S32" s="45"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="7"/>
-      <c r="B33" s="136">
+      <c r="B33" s="119">
         <v>31</v>
       </c>
-      <c r="C33" s="139"/>
-      <c r="D33" s="138">
+      <c r="C33" s="122"/>
+      <c r="D33" s="121">
         <v>127047</v>
       </c>
-      <c r="E33" s="138" t="s">
+      <c r="E33" s="121" t="s">
         <v>87</v>
       </c>
-      <c r="F33" s="139">
+      <c r="F33" s="122">
         <v>10</v>
       </c>
-      <c r="G33" s="140"/>
-      <c r="H33" s="141">
+      <c r="G33" s="123"/>
+      <c r="H33" s="124">
         <f>F33*G33</f>
         <v>0</v>
       </c>
-      <c r="I33" s="139" t="s">
+      <c r="I33" s="122" t="s">
         <v>62</v>
       </c>
-      <c r="J33" s="139"/>
-      <c r="K33" s="139"/>
-      <c r="L33" s="139"/>
-      <c r="M33" s="141">
+      <c r="J33" s="122"/>
+      <c r="K33" s="122"/>
+      <c r="L33" s="122"/>
+      <c r="M33" s="124">
         <f>J33*L33</f>
         <v>0</v>
       </c>
-      <c r="N33" s="142" t="e">
+      <c r="N33" s="125" t="e">
         <f>(J33-K33)/K33</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O33" s="141"/>
-      <c r="P33" s="142">
+      <c r="O33" s="124"/>
+      <c r="P33" s="125">
         <f>M33/$M$58</f>
         <v>0</v>
       </c>
-      <c r="Q33" s="143"/>
+      <c r="Q33" s="126"/>
       <c r="S33" s="45"/>
     </row>
     <row r="34" spans="1:19" s="94" customFormat="1" x14ac:dyDescent="0.2">
@@ -5666,66 +5753,78 @@
       </c>
       <c r="S35" s="45"/>
     </row>
-    <row r="36" spans="1:19" s="135" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="136">
+    <row r="36" spans="1:19" s="118" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="119">
         <v>34</v>
       </c>
-      <c r="C36" s="137">
+      <c r="C36" s="120">
         <v>44539</v>
       </c>
-      <c r="D36" s="138">
+      <c r="D36" s="121">
         <v>127047</v>
       </c>
-      <c r="E36" s="138" t="s">
+      <c r="E36" s="121" t="s">
         <v>87</v>
       </c>
-      <c r="F36" s="139">
+      <c r="F36" s="122">
         <v>-10</v>
       </c>
-      <c r="G36" s="140"/>
-      <c r="H36" s="141">
+      <c r="G36" s="123"/>
+      <c r="H36" s="124">
         <f>F36*G36</f>
         <v>0</v>
       </c>
-      <c r="I36" s="139" t="s">
+      <c r="I36" s="122" t="s">
         <v>79</v>
       </c>
-      <c r="J36" s="139"/>
-      <c r="K36" s="139"/>
-      <c r="L36" s="139"/>
-      <c r="M36" s="141">
+      <c r="J36" s="122"/>
+      <c r="K36" s="122"/>
+      <c r="L36" s="122"/>
+      <c r="M36" s="124">
         <f>J36*L36</f>
         <v>0</v>
       </c>
-      <c r="N36" s="142" t="e">
+      <c r="N36" s="125" t="e">
         <f>(J36-K36)/K36</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O36" s="141">
+      <c r="O36" s="124">
         <v>380.91</v>
       </c>
-      <c r="P36" s="142">
+      <c r="P36" s="125">
         <f>M36/$M$58</f>
         <v>0</v>
       </c>
-      <c r="Q36" s="143"/>
-      <c r="S36" s="144"/>
+      <c r="Q36" s="126"/>
+      <c r="S36" s="127"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="7"/>
       <c r="B37" s="105">
         <v>35</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="55"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="37"/>
+      <c r="C37" s="53">
+        <v>44544</v>
+      </c>
+      <c r="D37" s="55">
+        <v>113036</v>
+      </c>
+      <c r="E37" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="F37" s="25">
+        <v>10</v>
+      </c>
+      <c r="G37" s="37">
+        <v>107.89</v>
+      </c>
       <c r="H37" s="24">
         <f>F37*G37</f>
-        <v>0</v>
-      </c>
-      <c r="I37" s="25"/>
+        <v>1078.9000000000001</v>
+      </c>
+      <c r="I37" s="25" t="s">
+        <v>107</v>
+      </c>
       <c r="J37" s="21"/>
       <c r="K37" s="21"/>
       <c r="L37" s="21"/>
@@ -5787,7 +5886,7 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="7"/>
-      <c r="B39" s="117"/>
+      <c r="B39" s="116"/>
       <c r="C39" s="13"/>
       <c r="D39" s="55"/>
       <c r="E39" s="55"/>
@@ -5807,7 +5906,7 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="7"/>
-      <c r="B40" s="117"/>
+      <c r="B40" s="116"/>
       <c r="C40" s="13"/>
       <c r="D40" s="55"/>
       <c r="E40" s="55"/>
@@ -5827,7 +5926,7 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="7"/>
-      <c r="B41" s="117"/>
+      <c r="B41" s="116"/>
       <c r="C41" s="13">
         <v>128138</v>
       </c>
@@ -5892,7 +5991,9 @@
         <v>38</v>
       </c>
       <c r="C43" s="13"/>
-      <c r="D43" s="55"/>
+      <c r="D43" s="55" t="s">
+        <v>65</v>
+      </c>
       <c r="E43" s="55"/>
       <c r="F43" s="25"/>
       <c r="G43" s="37"/>
@@ -6377,20 +6478,20 @@
       <c r="J58" s="22"/>
       <c r="K58" s="110">
         <f>SUMPRODUCT((K3:K56)*(L3:L56))</f>
-        <v>27523.440000000006</v>
+        <v>28602.54</v>
       </c>
       <c r="L58" s="111"/>
       <c r="M58" s="41">
         <f>SUM(M3:M57)</f>
-        <v>30026.589999999997</v>
+        <v>31658.06</v>
       </c>
       <c r="N58" s="44">
         <f>(O58)/K58</f>
-        <v>0.1488309600834779</v>
+        <v>0.16252787339865618</v>
       </c>
       <c r="O58" s="35">
         <f>SUM(O3:O57)</f>
-        <v>4096.34</v>
+        <v>4648.7099999999991</v>
       </c>
       <c r="P58" s="22"/>
       <c r="Q58" s="17"/>
@@ -6425,8 +6526,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:Q44">
-    <sortCondition ref="B3:B44"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:Q40">
+    <sortCondition ref="B3:B40"/>
   </sortState>
   <mergeCells count="9">
     <mergeCell ref="S1:S2"/>
@@ -6469,9 +6570,10 @@
     <hyperlink ref="C45" r:id="rId13" display="https://www.jisilu.cn/data/convert_bond_detail/110059" xr:uid="{1C33FE33-4680-4BF2-B509-5CB0DA03CAD5}"/>
     <hyperlink ref="C50" r:id="rId14" display="https://www.jisilu.cn/data/convert_bond_detail/127034" xr:uid="{F477E743-CC38-4A0A-9F55-72D9AAC617CF}"/>
     <hyperlink ref="D63" r:id="rId15" display="https://www.jisilu.cn/data/convert_bond_detail/127021" xr:uid="{E49176AE-27C8-4D9B-B1C6-607F68ABCC85}"/>
+    <hyperlink ref="D37" r:id="rId16" display="https://www.jisilu.cn/data/convert_bond_detail/113036" xr:uid="{B2B3ABF9-AB4A-498C-9A63-1F43D425AFD9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId17"/>
 </worksheet>
 </file>
 
@@ -6924,17 +7026,17 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3073" r:id="rId4" name="Control 1">
+        <control shapeId="3084" r:id="rId4" name="Control 12">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>2</xdr:col>
+                <xdr:col>3</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>0</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
+                <xdr:col>3</xdr:col>
                 <xdr:colOff>266700</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>57150</xdr:rowOff>
@@ -6944,13 +7046,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3073" r:id="rId4" name="Control 1"/>
+        <control shapeId="3084" r:id="rId4" name="Control 12"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3074" r:id="rId6" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId7">
+        <control shapeId="3083" r:id="rId6" name="Control 11">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -6959,22 +7061,47 @@
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
                 <xdr:row>1</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3074" r:id="rId6" name="Control 2"/>
+        <control shapeId="3083" r:id="rId6" name="Control 11"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3075" r:id="rId8" name="Control 3">
+        <control shapeId="3082" r:id="rId7" name="Control 10">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3082" r:id="rId7" name="Control 10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3081" r:id="rId8" name="Control 9">
           <controlPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
@@ -6994,12 +7121,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3075" r:id="rId8" name="Control 3"/>
+        <control shapeId="3081" r:id="rId8" name="Control 9"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3076" r:id="rId10" name="Control 4">
+        <control shapeId="3080" r:id="rId10" name="Control 8">
           <controlPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
@@ -7019,12 +7146,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3076" r:id="rId10" name="Control 4"/>
+        <control shapeId="3080" r:id="rId10" name="Control 8"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3077" r:id="rId11" name="Control 5">
+        <control shapeId="3079" r:id="rId11" name="Control 7">
           <controlPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
@@ -7044,7 +7171,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3077" r:id="rId11" name="Control 5"/>
+        <control shapeId="3079" r:id="rId11" name="Control 7"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -7074,7 +7201,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3079" r:id="rId13" name="Control 7">
+        <control shapeId="3077" r:id="rId13" name="Control 5">
           <controlPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
@@ -7094,12 +7221,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3079" r:id="rId13" name="Control 7"/>
+        <control shapeId="3077" r:id="rId13" name="Control 5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3080" r:id="rId14" name="Control 8">
+        <control shapeId="3076" r:id="rId14" name="Control 4">
           <controlPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
@@ -7119,12 +7246,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3080" r:id="rId14" name="Control 8"/>
+        <control shapeId="3076" r:id="rId14" name="Control 4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3081" r:id="rId15" name="Control 9">
+        <control shapeId="3075" r:id="rId15" name="Control 3">
           <controlPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
@@ -7144,13 +7271,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3081" r:id="rId15" name="Control 9"/>
+        <control shapeId="3075" r:id="rId15" name="Control 3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3082" r:id="rId16" name="Control 10">
-          <controlPr defaultSize="0" r:id="rId5">
+        <control shapeId="3074" r:id="rId16" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId17">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -7159,7 +7286,32 @@
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>666750</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3074" r:id="rId16" name="Control 2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3073" r:id="rId18" name="Control 1">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
                 <xdr:colOff>266700</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>57150</xdr:rowOff>
@@ -7169,57 +7321,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3082" r:id="rId16" name="Control 10"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3083" r:id="rId17" name="Control 11">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>266700</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3083" r:id="rId17" name="Control 11"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3084" r:id="rId18" name="Control 12">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>266700</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3084" r:id="rId18" name="Control 12"/>
+        <control shapeId="3073" r:id="rId18" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -7256,7 +7358,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7270,14 +7372,14 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="132" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="132"/>
-      <c r="D1" s="133" t="s">
+      <c r="B1" s="142" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="142"/>
+      <c r="D1" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="134"/>
+      <c r="E1" s="144"/>
       <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
